--- a/555_Timer_BOM.xlsx
+++ b/555_Timer_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMA\Desktop\GitWorkspace\555_Timer_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMA\Desktop\ddd\555_Timer_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9EDAD3-BA05-4601-8DC9-5A7BE84535C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BE2636-EB9C-45DD-85C8-7E5925051D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="350" windowWidth="24220" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,24 +445,25 @@
     <t>https://www.lcsc.com/product-detail/Timers-Counters_Texas-Instruments-SA555DR_C6899.html</t>
   </si>
   <si>
-    <t>RML011</t>
-  </si>
-  <si>
-    <t>TSSOP-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hex Schmitt-Trigger Inverter / Vin: 2.3V &lt;-&gt; 3.6V </t>
-  </si>
-  <si>
-    <t>Texas Instruments SN74ALVC14PWR</t>
+    <t>RML015</t>
+  </si>
+  <si>
+    <t>SOIC-14</t>
+  </si>
+  <si>
+    <t>Hex Schmitt-Trigger Inverter / Vin: 2V &lt;-&gt; 6V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lingxingic
+SN74HC04DR(LX) </t>
   </si>
   <si>
     <t>Used for 555 Timer PCB project
-Vin: 2.3V &lt;-&gt; 3.6V
-LCSC: Schmitt Trigger 6 3.4ns@3.3V,50pF 10uA 2.3V~3.6V TSSOP-14 Inverters ROHS</t>
-  </si>
-  <si>
-    <t>https://www.lcsc.com/product-detail/Inverters_Texas-Instruments-SN74ALVC14PWR_C2865633.html</t>
+Vin: 2V &lt;-&gt; 6V
+LCSC: 6 14ns@6V,50pF 2uA 2V~6V SOP-14 Inverters ROHS</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Inverters_lingxingic-SN74HC04DR-LX_C22436975.html</t>
   </si>
 </sst>
 </file>
@@ -993,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430F5CFF-3B22-4258-8F13-E00840111895}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1018,7 +1019,7 @@
       </c>
       <c r="B1" s="12">
         <f>SUM(L:L)</f>
-        <v>4.7739947199999992</v>
+        <v>4.25615772</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1034,7 +1035,7 @@
       </c>
       <c r="B2" s="14">
         <f>SUM(N:N)</f>
-        <v>31.46</v>
+        <v>31.45</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1912,25 +1913,25 @@
         <v>130</v>
       </c>
       <c r="I22" s="3">
-        <v>0.1411</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" ref="J22" si="12">I22*3.67</f>
-        <v>0.51783699999999999</v>
+        <v>0.213227</v>
       </c>
       <c r="K22" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="12">
         <f t="shared" ref="L22" si="13">K22*J22</f>
-        <v>0.51783699999999999</v>
+        <v>0</v>
       </c>
       <c r="M22" s="9">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="N22" s="14">
         <f t="shared" ref="N22" si="14">K22*M22</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O22" s="31" t="s">
         <v>131</v>
@@ -2003,7 +2004,7 @@
     <hyperlink ref="O13" r:id="rId16" xr:uid="{B1C4B11B-5EB2-4E1C-991A-2DD045B6FE10}"/>
     <hyperlink ref="O17" r:id="rId17" xr:uid="{B6B0EDA1-5861-4188-8891-B37ACB1D30E7}"/>
     <hyperlink ref="O20" r:id="rId18" xr:uid="{91663DDB-64DE-423B-92F2-681913F29009}"/>
-    <hyperlink ref="O22" r:id="rId19" xr:uid="{79C676FC-EA3E-4978-BF21-8C2C341DE04C}"/>
+    <hyperlink ref="O22" r:id="rId19" xr:uid="{D1812526-CC87-4F1A-95C8-0ACB3D37D6F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId20"/>
